--- a/uploadFiles/하나쉴드/2024년01월_하나쉴드(개인정보검출_출력물보안).xlsx
+++ b/uploadFiles/하나쉴드/2024년01월_하나쉴드(개인정보검출_출력물보안).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2796" yWindow="0" windowWidth="28800" windowHeight="12516" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="2796" yWindow="0" windowWidth="28800" windowHeight="12516" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="101">
   <si>
     <t>날짜</t>
   </si>
@@ -231,10 +231,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>출력물 보안 출력 및 개인정보 패턴 현황 (12월)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2024-01-01</t>
   </si>
   <si>
@@ -342,6 +338,13 @@
   <si>
     <t>Total</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴개수</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -676,43 +679,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -725,7 +691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,15 +787,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9007,7 +8964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -9057,7 +9014,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="22">
         <v>1756328</v>
@@ -9089,7 +9046,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="22">
         <v>1751298</v>
@@ -9121,7 +9078,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="29">
         <v>1772831</v>
@@ -9153,7 +9110,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="22">
         <v>1777110</v>
@@ -9185,7 +9142,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="22">
         <v>1778639</v>
@@ -9217,7 +9174,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="22">
         <v>1776736</v>
@@ -9249,7 +9206,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="22">
         <v>1768955</v>
@@ -9281,7 +9238,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="22">
         <v>1774596</v>
@@ -9313,7 +9270,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="22">
         <v>1779746</v>
@@ -9345,7 +9302,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="22">
         <v>1790848</v>
@@ -9377,7 +9334,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="22">
         <v>1797182</v>
@@ -9409,7 +9366,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="22">
         <v>1801998</v>
@@ -9441,7 +9398,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="22">
         <v>1799557</v>
@@ -9473,7 +9430,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="22">
         <v>1796142</v>
@@ -9505,7 +9462,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="22">
         <v>1792066</v>
@@ -9537,7 +9494,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="22">
         <v>1802811</v>
@@ -9569,7 +9526,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="22">
         <v>1824251</v>
@@ -9601,7 +9558,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="22">
         <v>1892740</v>
@@ -9633,7 +9590,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="22">
         <v>2002094</v>
@@ -9665,7 +9622,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="22">
         <v>1997591</v>
@@ -9697,7 +9654,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="22">
         <v>1994251</v>
@@ -9729,7 +9686,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="22">
         <v>2003966</v>
@@ -9761,7 +9718,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="22">
         <v>2060084</v>
@@ -9793,7 +9750,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="22">
         <v>2080271</v>
@@ -9825,7 +9782,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="22">
         <v>2108896</v>
@@ -9857,7 +9814,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="22">
         <v>2117349</v>
@@ -9889,7 +9846,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" s="22">
         <v>2117422</v>
@@ -9921,7 +9878,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="22">
         <v>2117182</v>
@@ -9953,7 +9910,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="22">
         <v>2117117</v>
@@ -9985,7 +9942,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="22">
         <v>2118026</v>
@@ -10017,7 +9974,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="22">
         <v>2145450</v>
@@ -10107,7 +10064,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="51.75" customHeight="1">
       <c r="B2" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -10193,1029 +10150,1017 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J35"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.3984375" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="12" customHeight="1"/>
-    <row r="2" spans="2:10">
-      <c r="B2" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="26" t="s">
+      <c r="I1" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="27">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27">
+        <v>0</v>
+      </c>
+      <c r="E2" s="27">
+        <v>0</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27">
+        <v>0</v>
+      </c>
+      <c r="H2" s="27">
+        <v>0</v>
+      </c>
+      <c r="I2" s="30">
+        <f>SUM(D2:H2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="26" t="s">
         <v>97</v>
       </c>
+      <c r="B3" s="27">
+        <v>137771</v>
+      </c>
+      <c r="C3" s="27">
+        <v>35714</v>
+      </c>
+      <c r="D3" s="27">
+        <v>5597</v>
+      </c>
+      <c r="E3" s="27">
+        <v>212</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27">
+        <v>323</v>
+      </c>
+      <c r="H3" s="27">
+        <v>2197</v>
+      </c>
+      <c r="I3" s="30">
+        <f t="shared" ref="I3:I32" si="0">SUM(D3:H3)</f>
+        <v>8329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="27">
+        <v>96183</v>
+      </c>
       <c r="C4" s="27">
-        <v>0</v>
+        <v>20818</v>
       </c>
       <c r="D4" s="27">
-        <v>0</v>
+        <v>4029</v>
       </c>
       <c r="E4" s="27">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="F4" s="27">
         <v>0</v>
       </c>
       <c r="G4" s="27">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H4" s="27">
-        <v>0</v>
-      </c>
-      <c r="I4" s="27">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
-        <f>SUM(E4:I4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="27">
-        <v>137771</v>
-      </c>
-      <c r="D5" s="27">
-        <v>35714</v>
-      </c>
-      <c r="E5" s="27">
-        <v>5597</v>
-      </c>
-      <c r="F5" s="27">
-        <v>212</v>
-      </c>
-      <c r="G5" s="27">
-        <v>0</v>
-      </c>
-      <c r="H5" s="27">
-        <v>323</v>
-      </c>
-      <c r="I5" s="27">
-        <v>2197</v>
-      </c>
-      <c r="J5" s="30">
-        <f t="shared" ref="J5:J34" si="0">SUM(E5:I5)</f>
-        <v>8329</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="27">
-        <v>96183</v>
-      </c>
-      <c r="D6" s="27">
-        <v>20818</v>
-      </c>
-      <c r="E6" s="27">
-        <v>4029</v>
-      </c>
-      <c r="F6" s="27">
-        <v>141</v>
-      </c>
-      <c r="G6" s="27">
-        <v>0</v>
-      </c>
-      <c r="H6" s="27">
-        <v>85</v>
-      </c>
-      <c r="I6" s="27">
         <v>1148</v>
       </c>
-      <c r="J6" s="30">
+      <c r="I4" s="30">
         <f t="shared" si="0"/>
         <v>5403</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="26" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="27">
+        <v>86351</v>
+      </c>
+      <c r="C5" s="27">
+        <v>19801</v>
+      </c>
+      <c r="D5" s="27">
+        <v>3658</v>
+      </c>
+      <c r="E5" s="27">
+        <v>124</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27">
+        <v>38</v>
+      </c>
+      <c r="H5" s="27">
+        <v>1014</v>
+      </c>
+      <c r="I5" s="30">
+        <f t="shared" si="0"/>
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="26" t="s">
         <v>68</v>
       </c>
+      <c r="B6" s="27">
+        <v>141067</v>
+      </c>
+      <c r="C6" s="27">
+        <v>34274</v>
+      </c>
+      <c r="D6" s="27">
+        <v>18588</v>
+      </c>
+      <c r="E6" s="27">
+        <v>378</v>
+      </c>
+      <c r="F6" s="27">
+        <v>94090</v>
+      </c>
+      <c r="G6" s="27">
+        <v>352</v>
+      </c>
+      <c r="H6" s="27">
+        <v>2518</v>
+      </c>
+      <c r="I6" s="30">
+        <f t="shared" si="0"/>
+        <v>115926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="27">
+        <v>837</v>
+      </c>
       <c r="C7" s="27">
-        <v>86351</v>
+        <v>49</v>
       </c>
       <c r="D7" s="27">
-        <v>19801</v>
+        <v>116</v>
       </c>
       <c r="E7" s="27">
-        <v>3658</v>
+        <v>0</v>
       </c>
       <c r="F7" s="27">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="G7" s="27">
         <v>0</v>
       </c>
       <c r="H7" s="27">
-        <v>38</v>
-      </c>
-      <c r="I7" s="27">
-        <v>1014</v>
-      </c>
-      <c r="J7" s="30">
+        <v>4</v>
+      </c>
+      <c r="I7" s="30">
         <f t="shared" si="0"/>
-        <v>4834</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="26" t="s">
-        <v>69</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="27">
+        <v>1002</v>
       </c>
       <c r="C8" s="27">
-        <v>141067</v>
+        <v>134</v>
       </c>
       <c r="D8" s="27">
-        <v>34274</v>
+        <v>33</v>
       </c>
       <c r="E8" s="27">
-        <v>18588</v>
+        <v>4</v>
       </c>
       <c r="F8" s="27">
-        <v>378</v>
+        <v>146</v>
       </c>
       <c r="G8" s="27">
-        <v>94090</v>
+        <v>0</v>
       </c>
       <c r="H8" s="27">
-        <v>352</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2518</v>
-      </c>
-      <c r="J8" s="30">
+        <v>10</v>
+      </c>
+      <c r="I8" s="30">
         <f t="shared" si="0"/>
-        <v>115926</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="26" t="s">
-        <v>70</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="27">
+        <v>156358</v>
       </c>
       <c r="C9" s="27">
-        <v>837</v>
+        <v>36566</v>
       </c>
       <c r="D9" s="27">
-        <v>49</v>
+        <v>7347</v>
       </c>
       <c r="E9" s="27">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="F9" s="27">
         <v>0</v>
       </c>
       <c r="G9" s="27">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="H9" s="27">
-        <v>0</v>
-      </c>
-      <c r="I9" s="27">
-        <v>4</v>
-      </c>
-      <c r="J9" s="30">
-        <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="27">
-        <v>1002</v>
-      </c>
-      <c r="D10" s="27">
-        <v>134</v>
-      </c>
-      <c r="E10" s="27">
-        <v>33</v>
-      </c>
-      <c r="F10" s="27">
-        <v>4</v>
-      </c>
-      <c r="G10" s="27">
-        <v>146</v>
-      </c>
-      <c r="H10" s="27">
-        <v>0</v>
-      </c>
-      <c r="I10" s="27">
-        <v>10</v>
-      </c>
-      <c r="J10" s="30">
-        <f t="shared" si="0"/>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="27">
-        <v>156358</v>
-      </c>
-      <c r="D11" s="27">
-        <v>36566</v>
-      </c>
-      <c r="E11" s="27">
-        <v>7347</v>
-      </c>
-      <c r="F11" s="27">
-        <v>271</v>
-      </c>
-      <c r="G11" s="27">
-        <v>0</v>
-      </c>
-      <c r="H11" s="27">
-        <v>83</v>
-      </c>
-      <c r="I11" s="27">
         <v>928</v>
       </c>
-      <c r="J11" s="30">
+      <c r="I9" s="30">
         <f t="shared" si="0"/>
         <v>8629</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="27">
+    <row r="10" spans="1:9">
+      <c r="A10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="27">
         <v>148555</v>
       </c>
-      <c r="D12" s="27">
+      <c r="C10" s="27">
         <v>34256</v>
       </c>
-      <c r="E12" s="27">
+      <c r="D10" s="27">
         <v>6804</v>
       </c>
-      <c r="F12" s="27">
+      <c r="E10" s="27">
         <v>259</v>
       </c>
-      <c r="G12" s="27">
+      <c r="F10" s="27">
         <v>0</v>
       </c>
-      <c r="H12" s="27">
+      <c r="G10" s="27">
         <v>50</v>
       </c>
-      <c r="I12" s="27">
+      <c r="H10" s="27">
         <v>802</v>
       </c>
-      <c r="J12" s="30">
+      <c r="I10" s="30">
         <f t="shared" si="0"/>
         <v>7915</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="27">
+    <row r="11" spans="1:9">
+      <c r="A11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="27">
         <v>147814</v>
       </c>
-      <c r="D13" s="27">
+      <c r="C11" s="27">
         <v>32653</v>
       </c>
-      <c r="E13" s="27">
+      <c r="D11" s="27">
         <v>7391</v>
       </c>
-      <c r="F13" s="27">
+      <c r="E11" s="27">
         <v>307</v>
       </c>
-      <c r="G13" s="27">
+      <c r="F11" s="27">
         <v>0</v>
       </c>
-      <c r="H13" s="27">
+      <c r="G11" s="27">
         <v>56</v>
       </c>
-      <c r="I13" s="27">
+      <c r="H11" s="27">
         <v>863</v>
       </c>
-      <c r="J13" s="30">
+      <c r="I11" s="30">
         <f t="shared" si="0"/>
         <v>8617</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="26" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="27">
+        <v>144264</v>
+      </c>
+      <c r="C12" s="27">
+        <v>32323</v>
+      </c>
+      <c r="D12" s="27">
+        <v>5224</v>
+      </c>
+      <c r="E12" s="27">
+        <v>91</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27">
+        <v>34</v>
+      </c>
+      <c r="H12" s="27">
+        <v>895</v>
+      </c>
+      <c r="I12" s="30">
+        <f t="shared" si="0"/>
+        <v>6244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="26" t="s">
         <v>75</v>
       </c>
+      <c r="B13" s="27">
+        <v>166972</v>
+      </c>
+      <c r="C13" s="27">
+        <v>43524</v>
+      </c>
+      <c r="D13" s="27">
+        <v>8767</v>
+      </c>
+      <c r="E13" s="27">
+        <v>267</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
+        <v>57</v>
+      </c>
+      <c r="H13" s="27">
+        <v>5448</v>
+      </c>
+      <c r="I13" s="30">
+        <f t="shared" si="0"/>
+        <v>14539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="27">
+        <v>1374</v>
+      </c>
       <c r="C14" s="27">
-        <v>144264</v>
+        <v>150</v>
       </c>
       <c r="D14" s="27">
-        <v>32323</v>
+        <v>12</v>
       </c>
       <c r="E14" s="27">
-        <v>5224</v>
+        <v>0</v>
       </c>
       <c r="F14" s="27">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="G14" s="27">
         <v>0</v>
       </c>
       <c r="H14" s="27">
-        <v>34</v>
-      </c>
-      <c r="I14" s="27">
-        <v>895</v>
-      </c>
-      <c r="J14" s="30">
+        <v>18</v>
+      </c>
+      <c r="I14" s="30">
         <f t="shared" si="0"/>
-        <v>6244</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="26" t="s">
-        <v>76</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="27">
+        <v>2291</v>
       </c>
       <c r="C15" s="27">
-        <v>166972</v>
+        <v>228</v>
       </c>
       <c r="D15" s="27">
-        <v>43524</v>
+        <v>17</v>
       </c>
       <c r="E15" s="27">
-        <v>8767</v>
+        <v>8</v>
       </c>
       <c r="F15" s="27">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="G15" s="27">
         <v>0</v>
       </c>
       <c r="H15" s="27">
-        <v>57</v>
-      </c>
-      <c r="I15" s="27">
-        <v>5448</v>
-      </c>
-      <c r="J15" s="30">
+        <v>1</v>
+      </c>
+      <c r="I15" s="30">
         <f t="shared" si="0"/>
-        <v>14539</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="26" t="s">
-        <v>77</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="27">
+        <v>187079</v>
       </c>
       <c r="C16" s="27">
-        <v>1374</v>
+        <v>46813</v>
       </c>
       <c r="D16" s="27">
-        <v>150</v>
+        <v>9489</v>
       </c>
       <c r="E16" s="27">
-        <v>12</v>
+        <v>383</v>
       </c>
       <c r="F16" s="27">
         <v>0</v>
       </c>
       <c r="G16" s="27">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H16" s="27">
-        <v>0</v>
-      </c>
-      <c r="I16" s="27">
-        <v>18</v>
-      </c>
-      <c r="J16" s="30">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="27">
-        <v>2291</v>
-      </c>
-      <c r="D17" s="27">
-        <v>228</v>
-      </c>
-      <c r="E17" s="27">
-        <v>17</v>
-      </c>
-      <c r="F17" s="27">
-        <v>8</v>
-      </c>
-      <c r="G17" s="27">
-        <v>0</v>
-      </c>
-      <c r="H17" s="27">
-        <v>0</v>
-      </c>
-      <c r="I17" s="27">
-        <v>1</v>
-      </c>
-      <c r="J17" s="30">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="27">
-        <v>187079</v>
-      </c>
-      <c r="D18" s="27">
-        <v>46813</v>
-      </c>
-      <c r="E18" s="27">
-        <v>9489</v>
-      </c>
-      <c r="F18" s="27">
-        <v>383</v>
-      </c>
-      <c r="G18" s="27">
-        <v>0</v>
-      </c>
-      <c r="H18" s="27">
-        <v>52</v>
-      </c>
-      <c r="I18" s="27">
         <v>6180</v>
       </c>
-      <c r="J18" s="30">
+      <c r="I16" s="30">
         <f t="shared" si="0"/>
         <v>16104</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="27">
+    <row r="17" spans="1:9">
+      <c r="A17" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="27">
         <v>172599</v>
       </c>
-      <c r="D19" s="27">
+      <c r="C17" s="27">
         <v>44002</v>
       </c>
-      <c r="E19" s="27">
+      <c r="D17" s="27">
         <v>8624</v>
       </c>
-      <c r="F19" s="27">
+      <c r="E17" s="27">
         <v>339</v>
       </c>
-      <c r="G19" s="27">
+      <c r="F17" s="27">
         <v>0</v>
       </c>
-      <c r="H19" s="27">
+      <c r="G17" s="27">
         <v>48</v>
       </c>
-      <c r="I19" s="27">
+      <c r="H17" s="27">
         <v>5936</v>
       </c>
-      <c r="J19" s="30">
+      <c r="I17" s="30">
         <f t="shared" si="0"/>
         <v>14947</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="27">
+    <row r="18" spans="1:9">
+      <c r="A18" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="27">
         <v>175383</v>
       </c>
-      <c r="D20" s="27">
+      <c r="C18" s="27">
         <v>42475</v>
       </c>
-      <c r="E20" s="27">
+      <c r="D18" s="27">
         <v>8028</v>
       </c>
-      <c r="F20" s="27">
+      <c r="E18" s="27">
         <v>286</v>
       </c>
-      <c r="G20" s="27">
+      <c r="F18" s="27">
         <v>0</v>
       </c>
-      <c r="H20" s="27">
+      <c r="G18" s="27">
         <v>63</v>
       </c>
-      <c r="I20" s="27">
+      <c r="H18" s="27">
         <v>4998</v>
       </c>
-      <c r="J20" s="30">
+      <c r="I18" s="30">
         <f t="shared" si="0"/>
         <v>13375</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="26" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="27">
+        <v>183813</v>
+      </c>
+      <c r="C19" s="27">
+        <v>44810</v>
+      </c>
+      <c r="D19" s="27">
+        <v>8936</v>
+      </c>
+      <c r="E19" s="27">
+        <v>330</v>
+      </c>
+      <c r="F19" s="27">
+        <v>0</v>
+      </c>
+      <c r="G19" s="27">
+        <v>72</v>
+      </c>
+      <c r="H19" s="27">
+        <v>6595</v>
+      </c>
+      <c r="I19" s="30">
+        <f t="shared" si="0"/>
+        <v>15933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="26" t="s">
         <v>82</v>
       </c>
+      <c r="B20" s="27">
+        <v>177887</v>
+      </c>
+      <c r="C20" s="27">
+        <v>43259</v>
+      </c>
+      <c r="D20" s="27">
+        <v>9464</v>
+      </c>
+      <c r="E20" s="27">
+        <v>304</v>
+      </c>
+      <c r="F20" s="27">
+        <v>0</v>
+      </c>
+      <c r="G20" s="27">
+        <v>64</v>
+      </c>
+      <c r="H20" s="27">
+        <v>6891</v>
+      </c>
+      <c r="I20" s="30">
+        <f t="shared" si="0"/>
+        <v>16723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="27">
+        <v>1509</v>
+      </c>
       <c r="C21" s="27">
-        <v>183813</v>
+        <v>162</v>
       </c>
       <c r="D21" s="27">
-        <v>44810</v>
+        <v>36</v>
       </c>
       <c r="E21" s="27">
-        <v>8936</v>
+        <v>0</v>
       </c>
       <c r="F21" s="27">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="G21" s="27">
         <v>0</v>
       </c>
       <c r="H21" s="27">
-        <v>72</v>
-      </c>
-      <c r="I21" s="27">
-        <v>6595</v>
-      </c>
-      <c r="J21" s="30">
+        <v>16</v>
+      </c>
+      <c r="I21" s="30">
         <f t="shared" si="0"/>
-        <v>15933</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="26" t="s">
-        <v>83</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="27">
+        <v>2493</v>
       </c>
       <c r="C22" s="27">
-        <v>177887</v>
+        <v>295</v>
       </c>
       <c r="D22" s="27">
-        <v>43259</v>
+        <v>37</v>
       </c>
       <c r="E22" s="27">
-        <v>9464</v>
+        <v>19</v>
       </c>
       <c r="F22" s="27">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="G22" s="27">
         <v>0</v>
       </c>
       <c r="H22" s="27">
-        <v>64</v>
-      </c>
-      <c r="I22" s="27">
-        <v>6891</v>
-      </c>
-      <c r="J22" s="30">
+        <v>51</v>
+      </c>
+      <c r="I22" s="30">
         <f t="shared" si="0"/>
-        <v>16723</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="26" t="s">
-        <v>84</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="27">
+        <v>197893</v>
       </c>
       <c r="C23" s="27">
-        <v>1509</v>
+        <v>45555</v>
       </c>
       <c r="D23" s="27">
-        <v>162</v>
+        <v>10104</v>
       </c>
       <c r="E23" s="27">
-        <v>36</v>
+        <v>395</v>
       </c>
       <c r="F23" s="27">
         <v>0</v>
       </c>
       <c r="G23" s="27">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="H23" s="27">
-        <v>0</v>
-      </c>
-      <c r="I23" s="27">
-        <v>16</v>
-      </c>
-      <c r="J23" s="30">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="27">
-        <v>2493</v>
-      </c>
-      <c r="D24" s="27">
-        <v>295</v>
-      </c>
-      <c r="E24" s="27">
-        <v>37</v>
-      </c>
-      <c r="F24" s="27">
-        <v>19</v>
-      </c>
-      <c r="G24" s="27">
-        <v>0</v>
-      </c>
-      <c r="H24" s="27">
-        <v>0</v>
-      </c>
-      <c r="I24" s="27">
-        <v>51</v>
-      </c>
-      <c r="J24" s="30">
-        <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="27">
-        <v>197893</v>
-      </c>
-      <c r="D25" s="27">
-        <v>45555</v>
-      </c>
-      <c r="E25" s="27">
-        <v>10104</v>
-      </c>
-      <c r="F25" s="27">
-        <v>395</v>
-      </c>
-      <c r="G25" s="27">
-        <v>0</v>
-      </c>
-      <c r="H25" s="27">
-        <v>66</v>
-      </c>
-      <c r="I25" s="27">
         <v>7731</v>
       </c>
-      <c r="J25" s="30">
+      <c r="I23" s="30">
         <f t="shared" si="0"/>
         <v>18296</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="27">
+    <row r="24" spans="1:9">
+      <c r="A24" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="27">
         <v>198320</v>
       </c>
-      <c r="D26" s="27">
+      <c r="C24" s="27">
         <v>45392</v>
       </c>
-      <c r="E26" s="27">
+      <c r="D24" s="27">
         <v>9577</v>
       </c>
-      <c r="F26" s="27">
+      <c r="E24" s="27">
         <v>342</v>
       </c>
-      <c r="G26" s="27">
+      <c r="F24" s="27">
         <v>0</v>
       </c>
-      <c r="H26" s="27">
+      <c r="G24" s="27">
         <v>65</v>
       </c>
-      <c r="I26" s="27">
+      <c r="H24" s="27">
         <v>6967</v>
       </c>
-      <c r="J26" s="30">
+      <c r="I24" s="30">
         <f t="shared" si="0"/>
         <v>16951</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="27">
+    <row r="25" spans="1:9">
+      <c r="A25" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="27">
         <v>192945</v>
       </c>
-      <c r="D27" s="27">
+      <c r="C25" s="27">
         <v>45258</v>
       </c>
-      <c r="E27" s="27">
+      <c r="D25" s="27">
         <v>9242</v>
       </c>
-      <c r="F27" s="27">
+      <c r="E25" s="27">
         <v>340</v>
       </c>
-      <c r="G27" s="27">
+      <c r="F25" s="27">
         <v>0</v>
       </c>
-      <c r="H27" s="27">
+      <c r="G25" s="27">
         <v>69</v>
       </c>
-      <c r="I27" s="27">
+      <c r="H25" s="27">
         <v>6633</v>
       </c>
-      <c r="J27" s="30">
+      <c r="I25" s="30">
         <f t="shared" si="0"/>
         <v>16284</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="27">
+    <row r="26" spans="1:9">
+      <c r="A26" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="27">
         <v>202212</v>
       </c>
-      <c r="D28" s="27">
+      <c r="C26" s="27">
         <v>47734</v>
       </c>
-      <c r="E28" s="27">
+      <c r="D26" s="27">
         <v>10401</v>
       </c>
-      <c r="F28" s="27">
+      <c r="E26" s="27">
         <v>347</v>
       </c>
-      <c r="G28" s="27">
+      <c r="F26" s="27">
         <v>0</v>
       </c>
-      <c r="H28" s="27">
+      <c r="G26" s="27">
         <v>49</v>
       </c>
-      <c r="I28" s="27">
+      <c r="H26" s="27">
         <v>7309</v>
       </c>
-      <c r="J28" s="30">
+      <c r="I26" s="30">
         <f t="shared" si="0"/>
         <v>18106</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="26" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="27">
+        <v>188342</v>
+      </c>
+      <c r="C27" s="27">
+        <v>45521</v>
+      </c>
+      <c r="D27" s="27">
+        <v>10182</v>
+      </c>
+      <c r="E27" s="27">
+        <v>289</v>
+      </c>
+      <c r="F27" s="27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="27">
+        <v>41</v>
+      </c>
+      <c r="H27" s="27">
+        <v>6525</v>
+      </c>
+      <c r="I27" s="30">
+        <f t="shared" si="0"/>
+        <v>17037</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="26" t="s">
         <v>90</v>
       </c>
+      <c r="B28" s="27">
+        <v>1316</v>
+      </c>
+      <c r="C28" s="27">
+        <v>148</v>
+      </c>
+      <c r="D28" s="27">
+        <v>14</v>
+      </c>
+      <c r="E28" s="27">
+        <v>0</v>
+      </c>
+      <c r="F28" s="27">
+        <v>0</v>
+      </c>
+      <c r="G28" s="27">
+        <v>1</v>
+      </c>
+      <c r="H28" s="27">
+        <v>14</v>
+      </c>
+      <c r="I28" s="30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="27">
+        <v>2598</v>
+      </c>
       <c r="C29" s="27">
-        <v>188342</v>
+        <v>388</v>
       </c>
       <c r="D29" s="27">
-        <v>45521</v>
+        <v>52</v>
       </c>
       <c r="E29" s="27">
-        <v>10182</v>
+        <v>16</v>
       </c>
       <c r="F29" s="27">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="G29" s="27">
         <v>0</v>
       </c>
       <c r="H29" s="27">
-        <v>41</v>
-      </c>
-      <c r="I29" s="27">
-        <v>6525</v>
-      </c>
-      <c r="J29" s="30">
+        <v>52</v>
+      </c>
+      <c r="I29" s="30">
         <f t="shared" si="0"/>
-        <v>17037</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="26" t="s">
-        <v>91</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="27">
+        <v>212218</v>
       </c>
       <c r="C30" s="27">
-        <v>1316</v>
+        <v>50538</v>
       </c>
       <c r="D30" s="27">
-        <v>148</v>
+        <v>10823</v>
       </c>
       <c r="E30" s="27">
-        <v>14</v>
+        <v>366</v>
       </c>
       <c r="F30" s="27">
         <v>0</v>
       </c>
       <c r="G30" s="27">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H30" s="27">
-        <v>1</v>
-      </c>
-      <c r="I30" s="27">
-        <v>14</v>
-      </c>
-      <c r="J30" s="30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="27">
-        <v>2598</v>
-      </c>
-      <c r="D31" s="27">
-        <v>388</v>
-      </c>
-      <c r="E31" s="27">
-        <v>52</v>
-      </c>
-      <c r="F31" s="27">
-        <v>16</v>
-      </c>
-      <c r="G31" s="27">
-        <v>0</v>
-      </c>
-      <c r="H31" s="27">
-        <v>0</v>
-      </c>
-      <c r="I31" s="27">
-        <v>52</v>
-      </c>
-      <c r="J31" s="30">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="27">
-        <v>212218</v>
-      </c>
-      <c r="D32" s="27">
-        <v>50538</v>
-      </c>
-      <c r="E32" s="27">
-        <v>10823</v>
-      </c>
-      <c r="F32" s="27">
-        <v>366</v>
-      </c>
-      <c r="G32" s="27">
-        <v>0</v>
-      </c>
-      <c r="H32" s="27">
-        <v>45</v>
-      </c>
-      <c r="I32" s="27">
         <v>7762</v>
       </c>
-      <c r="J32" s="30">
+      <c r="I30" s="30">
         <f t="shared" si="0"/>
         <v>18996</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="27">
+    <row r="31" spans="1:9">
+      <c r="A31" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="27">
         <v>208187</v>
       </c>
-      <c r="D33" s="27">
+      <c r="C31" s="27">
         <v>49507</v>
       </c>
-      <c r="E33" s="27">
+      <c r="D31" s="27">
         <v>10899</v>
       </c>
-      <c r="F33" s="27">
+      <c r="E31" s="27">
         <v>358</v>
       </c>
-      <c r="G33" s="27">
+      <c r="F31" s="27">
         <v>0</v>
       </c>
-      <c r="H33" s="27">
+      <c r="G31" s="27">
         <v>51</v>
       </c>
-      <c r="I33" s="27">
+      <c r="H31" s="27">
         <v>7596</v>
       </c>
-      <c r="J33" s="30">
+      <c r="I31" s="30">
         <f t="shared" si="0"/>
         <v>18904</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="27">
+    <row r="32" spans="1:9">
+      <c r="A32" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="27">
         <v>206841</v>
       </c>
-      <c r="D34" s="27">
+      <c r="C32" s="27">
         <v>52402</v>
       </c>
-      <c r="E34" s="27">
+      <c r="D32" s="27">
         <v>10246</v>
       </c>
-      <c r="F34" s="27">
+      <c r="E32" s="27">
         <v>304</v>
       </c>
-      <c r="G34" s="27">
+      <c r="F32" s="27">
         <v>0</v>
       </c>
-      <c r="H34" s="27">
+      <c r="G32" s="27">
         <v>65</v>
       </c>
-      <c r="I34" s="27">
+      <c r="H32" s="27">
         <v>7852</v>
       </c>
-      <c r="J34" s="30">
+      <c r="I32" s="30">
         <f t="shared" si="0"/>
         <v>18467</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="27">
-        <f>SUM(C4:C34)</f>
+    <row r="33" spans="1:9">
+      <c r="A33" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="27">
+        <f>SUM(B2:B32)</f>
         <v>3742474</v>
       </c>
-      <c r="D35" s="27">
-        <f t="shared" ref="D35:J35" si="1">SUM(D4:D34)</f>
+      <c r="C33" s="27">
+        <f t="shared" ref="C33:I33" si="1">SUM(C2:C32)</f>
         <v>894749</v>
       </c>
-      <c r="E35" s="27">
+      <c r="D33" s="27">
         <f t="shared" si="1"/>
         <v>193737</v>
       </c>
-      <c r="F35" s="27">
+      <c r="E33" s="27">
         <f t="shared" si="1"/>
         <v>6480</v>
       </c>
-      <c r="G35" s="27">
+      <c r="F33" s="27">
         <f t="shared" si="1"/>
         <v>94258</v>
       </c>
-      <c r="H35" s="27">
+      <c r="G33" s="27">
         <f t="shared" si="1"/>
         <v>1829</v>
       </c>
-      <c r="I35" s="27">
+      <c r="H33" s="27">
         <f t="shared" si="1"/>
         <v>104954</v>
       </c>
-      <c r="J35" s="30">
+      <c r="I33" s="30">
         <f t="shared" si="1"/>
         <v>401258</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:I2"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11242,21 +11187,21 @@
     <row r="1" spans="2:4" ht="12.75" customHeight="1"/>
     <row r="2" spans="2:4" ht="16.5" customHeight="1">
       <c r="B2" s="22"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="22"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="27">
         <v>0</v>
@@ -11267,7 +11212,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="27">
         <v>137771</v>
@@ -11278,7 +11223,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="27">
         <v>96183</v>
@@ -11289,7 +11234,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="27">
         <v>86351</v>
@@ -11300,7 +11245,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="27">
         <v>141067</v>
@@ -11311,7 +11256,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="27">
         <v>837</v>
@@ -11322,7 +11267,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="27">
         <v>1002</v>
@@ -11333,7 +11278,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="27">
         <v>156358</v>
@@ -11344,7 +11289,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="27">
         <v>148555</v>
@@ -11355,7 +11300,7 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="27">
         <v>147814</v>
@@ -11366,7 +11311,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="27">
         <v>144264</v>
@@ -11377,7 +11322,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="27">
         <v>166972</v>
@@ -11388,7 +11333,7 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="27">
         <v>1374</v>
@@ -11399,7 +11344,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="27">
         <v>2291</v>
@@ -11410,7 +11355,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="27">
         <v>187079</v>
@@ -11421,7 +11366,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="27">
         <v>172599</v>
@@ -11432,7 +11377,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="27">
         <v>175383</v>
@@ -11443,7 +11388,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="27">
         <v>183813</v>
@@ -11454,7 +11399,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="27">
         <v>177887</v>
@@ -11465,7 +11410,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="27">
         <v>1509</v>
@@ -11476,7 +11421,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="27">
         <v>2493</v>
@@ -11487,7 +11432,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="27">
         <v>197893</v>
@@ -11498,7 +11443,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="27">
         <v>198320</v>
@@ -11509,7 +11454,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="27">
         <v>192945</v>
@@ -11520,7 +11465,7 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="27">
         <v>202212</v>
@@ -11531,7 +11476,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="27">
         <v>188342</v>
@@ -11542,7 +11487,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="27">
         <v>1316</v>
@@ -11553,7 +11498,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="27">
         <v>2598</v>
@@ -11564,7 +11509,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="27">
         <v>212218</v>
@@ -11575,7 +11520,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="27">
         <v>208187</v>
@@ -11586,7 +11531,7 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="27">
         <v>206841</v>
